--- a/templates/export/SAMPLE_Rapport_AEM.xlsx
+++ b/templates/export/SAMPLE_Rapport_AEM.xlsx
@@ -1,40 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\aleck\www\rapportNav\src\Service\PAM\samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\aleck\www\rapportNav\templates\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0254D9-FA68-442F-9FDC-22D64D3FEAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB44077-306F-4AEE-99A1-05A7ECECBE05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <definedNames>
     <definedName name="Excel_BuiltIn__FilterDatabase_1">template!$A$7:$G$86</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1">template!$A$3:$G$101</definedName>
-    <definedName name="Excel_BuiltIn_Print_Titles_1">template!$A$3:$AMI$7</definedName>
+    <definedName name="Excel_BuiltIn_Print_Titles_1">template!$A$3:$AMH$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>ANNEXE II</t>
   </si>
@@ -57,65 +51,212 @@
     <t>Compte rendu interministériel Action de l'État en mer – Fonction garde côte</t>
   </si>
   <si>
-    <t>Missions (susceptibles d'être conduites par un PAM ou une VRS)</t>
-  </si>
-  <si>
     <t>Principale</t>
   </si>
   <si>
     <t>Secondaire</t>
   </si>
   <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>2.- Assistance aux navires en difficulté et sécurité maritime</t>
+  </si>
+  <si>
+    <t>3.- Lutte contre les trafics illicites par voie maritime</t>
+  </si>
+  <si>
+    <t>3.2. Lutte contre l’immigration illégale par voie maritime</t>
+  </si>
+  <si>
+    <t>4.- Protection de l'environnement, gestion du patrimoine marin et des ressources publiques marines, surveillance des espaces protégés</t>
+  </si>
+  <si>
+    <t>4.1. Répression contre les rejets illicites, lutte contre les pollutions et protection de l'environnement</t>
+  </si>
+  <si>
+    <t>4.2. Lutte contre les activités de pêche illégale, gestion du patrimoine marin et des ressources publiques marines</t>
+  </si>
+  <si>
+    <t>4.3. Surveillance et contrôles pour la protection de l’environnement</t>
+  </si>
+  <si>
+    <t>5.- Sûreté maritime</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>THEMIS</t>
+  </si>
+  <si>
+    <t>Manche Est Mer du Nord</t>
+  </si>
+  <si>
+    <t>A envoyer sur la boite d'unité du bureau SMC3 : Am3.Am.Dam.Dgitm@developpement-durable.gouv.fr</t>
+  </si>
+  <si>
+    <t>Missions (susceptibles d'être conduites par un PAM)</t>
+  </si>
+  <si>
+    <t>1.- Sauvetage de la vie humaine</t>
+  </si>
+  <si>
+    <t>1.1 Nombre d’heures de mer</t>
+  </si>
+  <si>
+    <t>1.3 Nombre d’heures de mer hors SRR française et hors coordination d'un CROSS ou MRCC français</t>
+  </si>
+  <si>
+    <t>1.5 Nombre d'opérations conduites</t>
+  </si>
+  <si>
+    <t>1.6 Nombre de personnes secourues</t>
+  </si>
+  <si>
+    <t>1.7 Nombre de personnes disparues ou décédées</t>
+  </si>
+  <si>
+    <t>2.1. Nombre d'heures de mer</t>
+  </si>
+  <si>
+    <t>2.3. Nombre d'opérations suivies (ayant fait l'objet d'un DEFREP)</t>
+  </si>
+  <si>
+    <t>2.4. Nombre de mise en demeure</t>
+  </si>
+  <si>
+    <t>2.6. Nombre de remorquages dans le cadre d'une opération suivie (ayant fait l'objet d'un DEFREP)</t>
+  </si>
+  <si>
+    <t>3.2.1 Nombre d’heures de mer</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3.2.3 Nombre de navires/embarcations interceptés (zone géographique de l’interception en colonne observations) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3.2.4 Nombre de migrants interceptés</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>3.2.5 Nombre de passeurs présumés</t>
+  </si>
+  <si>
+    <t>4.1.1 Nombre d'heures de mer (surveillance et lutte)</t>
+  </si>
+  <si>
+    <t>4.1.3 Nombre de pollutions détectées et/ou constatées par un agent habilité</t>
+  </si>
+  <si>
+    <t>4.1.4 Nombre de procès-verbaux d'infraction dressés</t>
+  </si>
+  <si>
+    <t>4.1.5 Nombre de déroutements effectués (accompagnement)</t>
+  </si>
+  <si>
+    <t>4.1.6 Nombre d'opérations de lutte anti-pollution en mer</t>
+  </si>
+  <si>
+    <t>4.2.1 Nombre d’heures de mer (surveillance/police des pêches) :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             … dont nombre d'heures en ZEE française</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             … dont nombre d'heures hors ZEE française</t>
+  </si>
+  <si>
+    <t>4.2.3 Nombre de navires contrôlés en mer (législation pêche)</t>
+  </si>
+  <si>
+    <t>4.2.4 Nombre de procès-verbaux dressés (législation pêche)</t>
+  </si>
+  <si>
+    <t>4.2.5 Nombre de navires accompagnés ou déroutés</t>
+  </si>
+  <si>
+    <t>4.3.1 Nombre d'heures de mer de surveillance ou de contrôle pour la protection de l’environnement</t>
+  </si>
+  <si>
+    <t>4.3.2 Nombre d’heures de vol de surveillance ou de contrôle pour la protection de l’environnement</t>
+  </si>
+  <si>
+    <t>4.3.3. Nombre d’infractions à la réglementation relative à la protection de l’environnement</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">5.1  Nombre d'heures de mer (y compris VIGIMER ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>5.3 Nombre d'heures de mer de maintien de l'ordre public en mer</t>
+  </si>
+  <si>
+    <t>5.4 Nombre d’opérations de maintien de l’ordre public en mer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.- Souveraineté et protection des intérêts nationaux </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1. Nombre d’heures de mer de surveillance générale des approches maritimes </t>
+  </si>
+  <si>
+    <t>7.3. Nombre de contrôles en mer de navires</t>
+  </si>
+  <si>
+    <t>7.4. Nombre total de navires reconnus dans les approches maritimes</t>
+  </si>
+  <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>Observations</t>
-  </si>
-  <si>
-    <t>2.- Assistance aux navires en difficulté et sécurité maritime</t>
-  </si>
-  <si>
-    <t>3.- Lutte contre les trafics illicites par voie maritime</t>
-  </si>
-  <si>
-    <t>3.2. Lutte contre l’immigration illégale par voie maritime</t>
-  </si>
-  <si>
-    <t>4.- Protection de l'environnement, gestion du patrimoine marin et des ressources publiques marines, surveillance des espaces protégés</t>
-  </si>
-  <si>
-    <t>4.1. Répression contre les rejets illicites, lutte contre les pollutions et protection de l'environnement</t>
-  </si>
-  <si>
-    <t>4.2. Lutte contre les activités de pêche illégale, gestion du patrimoine marin et des ressources publiques marines</t>
-  </si>
-  <si>
-    <t>4.3. Surveillance et contrôles pour la protection de l’environnement</t>
-  </si>
-  <si>
-    <t>5.- Sûreté maritime</t>
-  </si>
-  <si>
-    <t>7.- Souveraineté et protection des intérêts nationaux</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>THEMIS</t>
-  </si>
-  <si>
-    <t>Manche Est Mer du Nord</t>
-  </si>
-  <si>
-    <t>A envoyer sur la boite d'unité du bureau SMC3 : Am3.Am.Dam.Dgitm@developpement-durable.gouv.fr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -261,8 +402,24 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,12 +470,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -342,46 +505,102 @@
       <diagonal/>
     </border>
     <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
+      <left/>
+      <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -406,22 +625,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -429,27 +642,64 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="18" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="18" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Accent" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -483,6 +733,301 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Annee_2023"/>
+      <sheetName val="Janvier"/>
+      <sheetName val="Février"/>
+      <sheetName val="Mars"/>
+      <sheetName val="Avril"/>
+      <sheetName val="Mai"/>
+      <sheetName val="Juin"/>
+      <sheetName val="Juillet"/>
+      <sheetName val="Août"/>
+      <sheetName val="Septembre"/>
+      <sheetName val="Octobre"/>
+      <sheetName val="Novembre"/>
+      <sheetName val="Décembre"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="17">
+          <cell r="H17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48" t="e">
+            <v>#REF!</v>
+          </cell>
+          <cell r="C48" t="e">
+            <v>#REF!</v>
+          </cell>
+          <cell r="D48" t="e">
+            <v>#REF!</v>
+          </cell>
+          <cell r="E48" t="e">
+            <v>#REF!</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="17">
+          <cell r="H17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48" t="e">
+            <v>#REF!</v>
+          </cell>
+          <cell r="C48" t="e">
+            <v>#REF!</v>
+          </cell>
+          <cell r="D48" t="e">
+            <v>#REF!</v>
+          </cell>
+          <cell r="E48" t="e">
+            <v>#REF!</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="17">
+          <cell r="H17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48" t="e">
+            <v>#REF!</v>
+          </cell>
+          <cell r="C48" t="e">
+            <v>#REF!</v>
+          </cell>
+          <cell r="D48" t="e">
+            <v>#REF!</v>
+          </cell>
+          <cell r="E48" t="e">
+            <v>#REF!</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="17">
+          <cell r="H17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48" t="e">
+            <v>#REF!</v>
+          </cell>
+          <cell r="C48" t="e">
+            <v>#REF!</v>
+          </cell>
+          <cell r="D48" t="e">
+            <v>#REF!</v>
+          </cell>
+          <cell r="E48" t="e">
+            <v>#REF!</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5">
+        <row r="17">
+          <cell r="H17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48" t="e">
+            <v>#REF!</v>
+          </cell>
+          <cell r="C48" t="e">
+            <v>#REF!</v>
+          </cell>
+          <cell r="D48" t="e">
+            <v>#REF!</v>
+          </cell>
+          <cell r="E48" t="e">
+            <v>#REF!</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6">
+        <row r="17">
+          <cell r="H17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48" t="e">
+            <v>#REF!</v>
+          </cell>
+          <cell r="C48" t="e">
+            <v>#REF!</v>
+          </cell>
+          <cell r="D48" t="e">
+            <v>#REF!</v>
+          </cell>
+          <cell r="E48" t="e">
+            <v>#REF!</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7">
+        <row r="17">
+          <cell r="H17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48" t="e">
+            <v>#REF!</v>
+          </cell>
+          <cell r="C48" t="e">
+            <v>#REF!</v>
+          </cell>
+          <cell r="D48" t="e">
+            <v>#REF!</v>
+          </cell>
+          <cell r="E48" t="e">
+            <v>#REF!</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="17">
+          <cell r="H17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48" t="e">
+            <v>#REF!</v>
+          </cell>
+          <cell r="C48" t="e">
+            <v>#REF!</v>
+          </cell>
+          <cell r="D48" t="e">
+            <v>#REF!</v>
+          </cell>
+          <cell r="E48" t="e">
+            <v>#REF!</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="17">
+          <cell r="H17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48" t="e">
+            <v>#REF!</v>
+          </cell>
+          <cell r="C48" t="e">
+            <v>#REF!</v>
+          </cell>
+          <cell r="D48" t="e">
+            <v>#REF!</v>
+          </cell>
+          <cell r="E48" t="e">
+            <v>#REF!</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="10">
+        <row r="17">
+          <cell r="H17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48" t="e">
+            <v>#REF!</v>
+          </cell>
+          <cell r="C48" t="e">
+            <v>#REF!</v>
+          </cell>
+          <cell r="D48" t="e">
+            <v>#REF!</v>
+          </cell>
+          <cell r="E48" t="e">
+            <v>#REF!</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="11">
+        <row r="17">
+          <cell r="H17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48" t="e">
+            <v>#REF!</v>
+          </cell>
+          <cell r="C48" t="e">
+            <v>#REF!</v>
+          </cell>
+          <cell r="D48" t="e">
+            <v>#REF!</v>
+          </cell>
+          <cell r="E48" t="e">
+            <v>#REF!</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="12">
+        <row r="17">
+          <cell r="H17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="I22">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48" t="e">
+            <v>#REF!</v>
+          </cell>
+          <cell r="C48" t="e">
+            <v>#REF!</v>
+          </cell>
+          <cell r="D48" t="e">
+            <v>#REF!</v>
+          </cell>
+          <cell r="E48" t="e">
+            <v>#REF!</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="I51">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="I55">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -782,10 +1327,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y999"/>
+  <dimension ref="A1:X999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -797,25 +1342,25 @@
     <col min="5" max="5" width="55.25" customWidth="1"/>
     <col min="6" max="6" width="14.875" customWidth="1"/>
     <col min="7" max="7" width="13.25" customWidth="1"/>
-    <col min="8" max="8" width="12.375" customWidth="1"/>
-    <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="25" width="8.125" customWidth="1"/>
-    <col min="26" max="1023" width="13.375" customWidth="1"/>
-    <col min="1024" max="1024" width="11" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="37.375" customWidth="1"/>
+    <col min="10" max="24" width="8.125" customWidth="1"/>
+    <col min="25" max="1022" width="13.375" customWidth="1"/>
+    <col min="1023" max="1023" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+    <row r="1" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -831,9 +1376,8 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-    </row>
-    <row r="2" spans="1:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -858,17 +1402,16 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-    </row>
-    <row r="3" spans="1:25" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+    </row>
+    <row r="3" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="18" t="s">
-        <v>24</v>
+      <c r="E3" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -889,12 +1432,11 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-    </row>
-    <row r="4" spans="1:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
+    </row>
+    <row r="4" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -916,9 +1458,8 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-    </row>
-    <row r="5" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -943,14 +1484,13 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-    </row>
-    <row r="6" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -974,14 +1514,13 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-    </row>
-    <row r="7" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1005,14 +1544,13 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-    </row>
-    <row r="8" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1036,9 +1574,8 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-    </row>
-    <row r="9" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -1065,9 +1602,8 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-    </row>
-    <row r="10" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1092,9 +1628,8 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-    </row>
-    <row r="11" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1119,9 +1654,8 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-    </row>
-    <row r="12" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>6</v>
       </c>
@@ -1148,9 +1682,8 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-    </row>
-    <row r="13" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1175,1096 +1708,1402 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-    </row>
-    <row r="14" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+    </row>
+    <row r="14" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="6" t="s">
+      <c r="G14" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="H14" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+    </row>
+    <row r="15" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+    </row>
+    <row r="16" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+    </row>
+    <row r="17" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="9">
+        <f>[1]Janvier!F17+[1]Février!F17+[1]Mars!F17+[1]Avril!F17+[1]Mai!F17+[1]Juin!F17+[1]Juillet!F17+[1]Août!F17+[1]Septembre!F17+[1]Octobre!F17+[1]Novembre!F17+[1]Décembre!F17</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="9">
+        <f>[1]Janvier!G17+[1]Février!G17+[1]Mars!G17+[1]Avril!G17+[1]Mai!G17+[1]Juin!G17+[1]Juillet!G17+[1]Août!G17+[1]Septembre!G17+[1]Octobre!G17+[1]Novembre!G17+[1]Décembre!G17</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="9">
+        <f>F17+G17</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="10"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+    </row>
+    <row r="18" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="9">
+        <f>[1]Janvier!F18+[1]Février!F18+[1]Mars!F18+[1]Avril!F18+[1]Mai!F18+[1]Juin!F18+[1]Juillet!F18+[1]Août!F18+[1]Septembre!F18+[1]Octobre!F18+[1]Novembre!F18+[1]Décembre!F18</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="9">
+        <f>[1]Janvier!G18+[1]Février!G18+[1]Mars!G18+[1]Avril!G18+[1]Mai!G18+[1]Juin!G18+[1]Juillet!G18+[1]Août!G18+[1]Septembre!G18+[1]Octobre!G18+[1]Novembre!G18+[1]Décembre!G18</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
+        <f t="shared" ref="H18:H21" si="0">F18+G18</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="10"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+    </row>
+    <row r="19" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="9">
+        <f>[1]Janvier!F19+[1]Février!F19+[1]Mars!F19+[1]Avril!F19+[1]Mai!F19+[1]Juin!F19+[1]Juillet!F19+[1]Août!F19+[1]Septembre!F19+[1]Octobre!F19+[1]Novembre!F19+[1]Décembre!F19</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="9">
+        <f>[1]Janvier!G19+[1]Février!G19+[1]Mars!G19+[1]Avril!G19+[1]Mai!G19+[1]Juin!G19+[1]Juillet!G19+[1]Août!G19+[1]Septembre!G19+[1]Octobre!G19+[1]Novembre!G19+[1]Décembre!G19</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+    </row>
+    <row r="20" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="9">
+        <f>[1]Janvier!F20+[1]Février!F20+[1]Mars!F20+[1]Avril!F20+[1]Mai!F20+[1]Juin!F20+[1]Juillet!F20+[1]Août!F20+[1]Septembre!F20+[1]Octobre!F20+[1]Novembre!F20+[1]Décembre!F20</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="9">
+        <f>[1]Janvier!G20+[1]Février!G20+[1]Mars!G20+[1]Avril!G20+[1]Mai!G20+[1]Juin!G20+[1]Juillet!G20+[1]Août!G20+[1]Septembre!G20+[1]Octobre!G20+[1]Novembre!G20+[1]Décembre!G20</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+    </row>
+    <row r="21" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="9">
+        <f>[1]Janvier!F21+[1]Février!F21+[1]Mars!F21+[1]Avril!F21+[1]Mai!F21+[1]Juin!F21+[1]Juillet!F21+[1]Août!F21+[1]Septembre!F21+[1]Octobre!F21+[1]Novembre!F21+[1]Décembre!F21</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="9">
+        <f>[1]Janvier!G21+[1]Février!G21+[1]Mars!G21+[1]Avril!G21+[1]Mai!G21+[1]Juin!G21+[1]Juillet!G21+[1]Août!G21+[1]Septembre!G21+[1]Octobre!G21+[1]Novembre!G21+[1]Décembre!G21</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="10"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+    </row>
+    <row r="22" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-    </row>
-    <row r="15" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-    </row>
-    <row r="16" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10">
-        <f>SUM(F16+G16)</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-    </row>
-    <row r="17" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10">
-        <f t="shared" ref="H17:H19" si="0">SUM(F17+G17)</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
-    </row>
-    <row r="18" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
-    </row>
-    <row r="19" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
-    </row>
-    <row r="20" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-    </row>
-    <row r="21" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-    </row>
-    <row r="22" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10">
-        <f>SUM(F22+G22)</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="11"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-    </row>
-    <row r="23" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10">
-        <f t="shared" ref="H23:H25" si="1">SUM(F23+G23)</f>
+      <c r="F22" s="14">
+        <f>[1]Janvier!F22+[1]Février!F22+[1]Mars!F22+[1]Avril!F22+[1]Mai!F22+[1]Juin!F22+[1]Juillet!F22+[1]Août!F22+[1]Septembre!F22+[1]Octobre!F22+[1]Novembre!F22+[1]Décembre!F22</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="14">
+        <f>[1]Janvier!G22+[1]Février!G22+[1]Mars!G22+[1]Avril!G22+[1]Mai!G22+[1]Juin!G22+[1]Juillet!G22+[1]Août!G22+[1]Septembre!G22+[1]Octobre!G22+[1]Novembre!G22+[1]Décembre!G22</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="14">
+        <f>[1]Décembre!I22</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="14"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+    </row>
+    <row r="23" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="13">
+        <f>[1]Janvier!B23+[1]Février!B23+[1]Mars!B23+[1]Avril!B23+[1]Mai!B23+[1]Juin!B23+[1]Juillet!B23+[1]Août!B23+[1]Septembre!B23+[1]Octobre!B23+[1]Novembre!B23+[1]Décembre!B23</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="13">
+        <f>[1]Janvier!C23+[1]Février!C23+[1]Mars!C23+[1]Avril!C23+[1]Mai!C23+[1]Juin!C23+[1]Juillet!C23+[1]Août!C23+[1]Septembre!C23+[1]Octobre!C23+[1]Novembre!C23+[1]Décembre!C23</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="13">
+        <f>[1]Janvier!D23+[1]Février!D23+[1]Mars!D23+[1]Avril!D23+[1]Mai!D23+[1]Juin!D23+[1]Juillet!D23+[1]Août!D23+[1]Septembre!D23+[1]Octobre!D23+[1]Novembre!D23+[1]Décembre!D23</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="13">
+        <f>[1]Janvier!E23+[1]Février!E23+[1]Mars!E23+[1]Avril!E23+[1]Mai!E23+[1]Juin!E23+[1]Juillet!E23+[1]Août!E23+[1]Septembre!E23+[1]Octobre!E23+[1]Novembre!E23+[1]Décembre!E23</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="9">
+        <f>[1]Janvier!F23+[1]Février!F23+[1]Mars!F23+[1]Avril!F23+[1]Mai!F23+[1]Juin!F23+[1]Juillet!F23+[1]Août!F23+[1]Septembre!F23+[1]Octobre!F23+[1]Novembre!F23+[1]Décembre!F23</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="9">
+        <f>[1]Janvier!G23+[1]Février!G23+[1]Mars!G23+[1]Avril!G23+[1]Mai!G23+[1]Juin!G23+[1]Juillet!G23+[1]Août!G23+[1]Septembre!G23+[1]Octobre!G23+[1]Novembre!G23+[1]Décembre!G23</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="9">
+        <f>F23+G23</f>
         <v>0</v>
       </c>
       <c r="I23" s="11"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-    </row>
-    <row r="24" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10">
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+    </row>
+    <row r="24" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="9">
+        <f>[1]Janvier!F24+[1]Février!F24+[1]Mars!F24+[1]Avril!F24+[1]Mai!F24+[1]Juin!F24+[1]Juillet!F24+[1]Août!F24+[1]Septembre!F24+[1]Octobre!F24+[1]Novembre!F24+[1]Décembre!F24</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="9">
+        <f>[1]Janvier!G24+[1]Février!G24+[1]Mars!G24+[1]Avril!G24+[1]Mai!G24+[1]Juin!G24+[1]Juillet!G24+[1]Août!G24+[1]Septembre!G24+[1]Octobre!G24+[1]Novembre!G24+[1]Décembre!G24</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="9">
+        <f t="shared" ref="H24:H26" si="1">F24+G24</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="11"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+    </row>
+    <row r="25" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="9">
+        <f>[1]Janvier!F25+[1]Février!F25+[1]Mars!F25+[1]Avril!F25+[1]Mai!F25+[1]Juin!F25+[1]Juillet!F25+[1]Août!F25+[1]Septembre!F25+[1]Octobre!F25+[1]Novembre!F25+[1]Décembre!F25</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="9">
+        <f>[1]Janvier!G25+[1]Février!G25+[1]Mars!G25+[1]Avril!G25+[1]Mai!G25+[1]Juin!G25+[1]Juillet!G25+[1]Août!G25+[1]Septembre!G25+[1]Octobre!G25+[1]Novembre!G25+[1]Décembre!G25</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I24" s="11"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
-    </row>
-    <row r="25" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10">
+      <c r="I25" s="11"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+    </row>
+    <row r="26" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="12">
+        <f>[1]Janvier!B26+[1]Février!B26+[1]Mars!B26+[1]Avril!B26+[1]Mai!B26+[1]Juin!B26+[1]Juillet!B26+[1]Août!B26+[1]Septembre!B26+[1]Octobre!B26+[1]Novembre!B26+[1]Décembre!B26</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="12">
+        <f>[1]Janvier!C26+[1]Février!C26+[1]Mars!C26+[1]Avril!C26+[1]Mai!C26+[1]Juin!C26+[1]Juillet!C26+[1]Août!C26+[1]Septembre!C26+[1]Octobre!C26+[1]Novembre!C26+[1]Décembre!C26</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="12">
+        <f>[1]Janvier!D26+[1]Février!D26+[1]Mars!D26+[1]Avril!D26+[1]Mai!D26+[1]Juin!D26+[1]Juillet!D26+[1]Août!D26+[1]Septembre!D26+[1]Octobre!D26+[1]Novembre!D26+[1]Décembre!D26</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="12">
+        <f>[1]Janvier!E26+[1]Février!E26+[1]Mars!E26+[1]Avril!E26+[1]Mai!E26+[1]Juin!E26+[1]Juillet!E26+[1]Août!E26+[1]Septembre!E26+[1]Octobre!E26+[1]Novembre!E26+[1]Décembre!E26</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="9">
+        <f>[1]Janvier!F26+[1]Février!F26+[1]Mars!F26+[1]Avril!F26+[1]Mai!F26+[1]Juin!F26+[1]Juillet!F26+[1]Août!F26+[1]Septembre!F26+[1]Octobre!F26+[1]Novembre!F26+[1]Décembre!F26</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="9">
+        <f>[1]Janvier!G26+[1]Février!G26+[1]Mars!G26+[1]Avril!G26+[1]Mai!G26+[1]Juin!G26+[1]Juillet!G26+[1]Août!G26+[1]Septembre!G26+[1]Octobre!G26+[1]Novembre!G26+[1]Décembre!G26</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I25" s="11"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
-    </row>
-    <row r="26" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
-    </row>
-    <row r="27" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-    </row>
-    <row r="28" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10">
-        <f>SUM(F28+G28)</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="11"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="9"/>
-    </row>
-    <row r="29" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10">
-        <f t="shared" ref="H29:H51" si="2">SUM(F29+G29)</f>
+      <c r="I26" s="11"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+    </row>
+    <row r="27" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+    </row>
+    <row r="28" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+    </row>
+    <row r="29" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="12">
+        <f>[1]Janvier!B29+[1]Février!B29+[1]Mars!B29+[1]Avril!B29+[1]Mai!B29+[1]Juin!B29+[1]Juillet!B29+[1]Août!B29+[1]Septembre!B29+[1]Octobre!B29+[1]Novembre!B29+[1]Décembre!B29</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="12">
+        <f>[1]Janvier!C29+[1]Février!C29+[1]Mars!C29+[1]Avril!C29+[1]Mai!C29+[1]Juin!C29+[1]Juillet!C29+[1]Août!C29+[1]Septembre!C29+[1]Octobre!C29+[1]Novembre!C29+[1]Décembre!C29</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="12">
+        <f>[1]Janvier!D29+[1]Février!D29+[1]Mars!D29+[1]Avril!D29+[1]Mai!D29+[1]Juin!D29+[1]Juillet!D29+[1]Août!D29+[1]Septembre!D29+[1]Octobre!D29+[1]Novembre!D29+[1]Décembre!D29</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="12">
+        <f>[1]Janvier!E29+[1]Février!E29+[1]Mars!E29+[1]Avril!E29+[1]Mai!E29+[1]Juin!E29+[1]Juillet!E29+[1]Août!E29+[1]Septembre!E29+[1]Octobre!E29+[1]Novembre!E29+[1]Décembre!E29</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="9">
+        <f>[1]Janvier!F29+[1]Février!F29+[1]Mars!F29+[1]Avril!F29+[1]Mai!F29+[1]Juin!F29+[1]Juillet!F29+[1]Août!F29+[1]Septembre!F29+[1]Octobre!F29+[1]Novembre!F29+[1]Décembre!F29</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="9">
+        <f>[1]Janvier!G29+[1]Février!G29+[1]Mars!G29+[1]Avril!G29+[1]Mai!G29+[1]Juin!G29+[1]Juillet!G29+[1]Août!G29+[1]Septembre!G29+[1]Octobre!G29+[1]Novembre!G29+[1]Décembre!G29</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="9">
+        <f>F29+G29</f>
         <v>0</v>
       </c>
       <c r="I29" s="11"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="9"/>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="9"/>
-    </row>
-    <row r="30" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10">
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+    </row>
+    <row r="30" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="12">
+        <f>[1]Janvier!B30+[1]Février!B30+[1]Mars!B30+[1]Avril!B30+[1]Mai!B30+[1]Juin!B30+[1]Juillet!B30+[1]Août!B30+[1]Septembre!B30+[1]Octobre!B30+[1]Novembre!B30+[1]Décembre!B30</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="12">
+        <f>[1]Janvier!C30+[1]Février!C30+[1]Mars!C30+[1]Avril!C30+[1]Mai!C30+[1]Juin!C30+[1]Juillet!C30+[1]Août!C30+[1]Septembre!C30+[1]Octobre!C30+[1]Novembre!C30+[1]Décembre!C30</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="12">
+        <f>[1]Janvier!D30+[1]Février!D30+[1]Mars!D30+[1]Avril!D30+[1]Mai!D30+[1]Juin!D30+[1]Juillet!D30+[1]Août!D30+[1]Septembre!D30+[1]Octobre!D30+[1]Novembre!D30+[1]Décembre!D30</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="12">
+        <f>[1]Janvier!E30+[1]Février!E30+[1]Mars!E30+[1]Avril!E30+[1]Mai!E30+[1]Juin!E30+[1]Juillet!E30+[1]Août!E30+[1]Septembre!E30+[1]Octobre!E30+[1]Novembre!E30+[1]Décembre!E30</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="9">
+        <f>[1]Janvier!F30+[1]Février!F30+[1]Mars!F30+[1]Avril!F30+[1]Mai!F30+[1]Juin!F30+[1]Juillet!F30+[1]Août!F30+[1]Septembre!F30+[1]Octobre!F30+[1]Novembre!F30+[1]Décembre!F30</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="9">
+        <f>[1]Janvier!G30+[1]Février!G30+[1]Mars!G30+[1]Avril!G30+[1]Mai!G30+[1]Juin!G30+[1]Juillet!G30+[1]Août!G30+[1]Septembre!G30+[1]Octobre!G30+[1]Novembre!G30+[1]Décembre!G30</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="9">
+        <f t="shared" ref="H30:H32" si="2">F30+G30</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="11"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+    </row>
+    <row r="31" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="12">
+        <f>[1]Janvier!B31+[1]Février!B31+[1]Mars!B31+[1]Avril!B31+[1]Mai!B31+[1]Juin!B31+[1]Juillet!B31+[1]Août!B31+[1]Septembre!B31+[1]Octobre!B31+[1]Novembre!B31+[1]Décembre!B31</f>
+        <v>0</v>
+      </c>
+      <c r="C31" s="12">
+        <f>[1]Janvier!C31+[1]Février!C31+[1]Mars!C31+[1]Avril!C31+[1]Mai!C31+[1]Juin!C31+[1]Juillet!C31+[1]Août!C31+[1]Septembre!C31+[1]Octobre!C31+[1]Novembre!C31+[1]Décembre!C31</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="12">
+        <f>[1]Janvier!D31+[1]Février!D31+[1]Mars!D31+[1]Avril!D31+[1]Mai!D31+[1]Juin!D31+[1]Juillet!D31+[1]Août!D31+[1]Septembre!D31+[1]Octobre!D31+[1]Novembre!D31+[1]Décembre!D31</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="12">
+        <f>[1]Janvier!E31+[1]Février!E31+[1]Mars!E31+[1]Avril!E31+[1]Mai!E31+[1]Juin!E31+[1]Juillet!E31+[1]Août!E31+[1]Septembre!E31+[1]Octobre!E31+[1]Novembre!E31+[1]Décembre!E31</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="9">
+        <f>[1]Janvier!F31+[1]Février!F31+[1]Mars!F31+[1]Avril!F31+[1]Mai!F31+[1]Juin!F31+[1]Juillet!F31+[1]Août!F31+[1]Septembre!F31+[1]Octobre!F31+[1]Novembre!F31+[1]Décembre!F31</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="9">
+        <f>[1]Janvier!G31+[1]Février!G31+[1]Mars!G31+[1]Avril!G31+[1]Mai!G31+[1]Juin!G31+[1]Juillet!G31+[1]Août!G31+[1]Septembre!G31+[1]Octobre!G31+[1]Novembre!G31+[1]Décembre!G31</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I30" s="11"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="9"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="9"/>
-      <c r="X30" s="9"/>
-      <c r="Y30" s="9"/>
-    </row>
-    <row r="31" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10">
+      <c r="I31" s="11"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+    </row>
+    <row r="32" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="12">
+        <f>[1]Janvier!B32+[1]Février!B32+[1]Mars!B32+[1]Avril!B32+[1]Mai!B32+[1]Juin!B32+[1]Juillet!B32+[1]Août!B32+[1]Septembre!B32+[1]Octobre!B32+[1]Novembre!B32+[1]Décembre!B32</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="12">
+        <f>[1]Janvier!C32+[1]Février!C32+[1]Mars!C32+[1]Avril!C32+[1]Mai!C32+[1]Juin!C32+[1]Juillet!C32+[1]Août!C32+[1]Septembre!C32+[1]Octobre!C32+[1]Novembre!C32+[1]Décembre!C32</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="12">
+        <f>[1]Janvier!D32+[1]Février!D32+[1]Mars!D32+[1]Avril!D32+[1]Mai!D32+[1]Juin!D32+[1]Juillet!D32+[1]Août!D32+[1]Septembre!D32+[1]Octobre!D32+[1]Novembre!D32+[1]Décembre!D32</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="12">
+        <f>[1]Janvier!E32+[1]Février!E32+[1]Mars!E32+[1]Avril!E32+[1]Mai!E32+[1]Juin!E32+[1]Juillet!E32+[1]Août!E32+[1]Septembre!E32+[1]Octobre!E32+[1]Novembre!E32+[1]Décembre!E32</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="9">
+        <f>[1]Janvier!F32+[1]Février!F32+[1]Mars!F32+[1]Avril!F32+[1]Mai!F32+[1]Juin!F32+[1]Juillet!F32+[1]Août!F32+[1]Septembre!F32+[1]Octobre!F32+[1]Novembre!F32+[1]Décembre!F32</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="9">
+        <f>[1]Janvier!G32+[1]Février!G32+[1]Mars!G32+[1]Avril!G32+[1]Mai!G32+[1]Juin!G32+[1]Juillet!G32+[1]Août!G32+[1]Septembre!G32+[1]Octobre!G32+[1]Novembre!G32+[1]Décembre!G32</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I31" s="11"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
-      <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="9"/>
-      <c r="X31" s="9"/>
-      <c r="Y31" s="9"/>
-    </row>
-    <row r="32" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="I32" s="11"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="9"/>
-    </row>
-    <row r="33" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="9"/>
-      <c r="X33" s="9"/>
-      <c r="Y33" s="9"/>
-    </row>
-    <row r="34" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+    </row>
+    <row r="33" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+    </row>
+    <row r="34" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="11"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
-      <c r="X34" s="9"/>
-      <c r="Y34" s="9"/>
-    </row>
-    <row r="35" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10">
-        <f t="shared" si="2"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+    </row>
+    <row r="35" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="13">
+        <f>[1]Janvier!B35+[1]Février!B35+[1]Mars!B35+[1]Avril!B35+[1]Mai!B35+[1]Juin!B35+[1]Juillet!B35+[1]Août!B35+[1]Septembre!B35+[1]Octobre!B35+[1]Novembre!B35+[1]Décembre!B35</f>
+        <v>0</v>
+      </c>
+      <c r="C35" s="13">
+        <f>[1]Janvier!C35+[1]Février!C35+[1]Mars!C35+[1]Avril!C35+[1]Mai!C35+[1]Juin!C35+[1]Juillet!C35+[1]Août!C35+[1]Septembre!C35+[1]Octobre!C35+[1]Novembre!C35+[1]Décembre!C35</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="13">
+        <f>[1]Janvier!D35+[1]Février!D35+[1]Mars!D35+[1]Avril!D35+[1]Mai!D35+[1]Juin!D35+[1]Juillet!D35+[1]Août!D35+[1]Septembre!D35+[1]Octobre!D35+[1]Novembre!D35+[1]Décembre!D35</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="13">
+        <f>[1]Janvier!E35+[1]Février!E35+[1]Mars!E35+[1]Avril!E35+[1]Mai!E35+[1]Juin!E35+[1]Juillet!E35+[1]Août!E35+[1]Septembre!E35+[1]Octobre!E35+[1]Novembre!E35+[1]Décembre!E35</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="9">
+        <f>[1]Janvier!F35+[1]Février!F35+[1]Mars!F35+[1]Avril!F35+[1]Mai!F35+[1]Juin!F35+[1]Juillet!F35+[1]Août!F35+[1]Septembre!F35+[1]Octobre!F35+[1]Novembre!F35+[1]Décembre!F35</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="9">
+        <f>[1]Janvier!G35+[1]Février!G35+[1]Mars!G35+[1]Avril!G35+[1]Mai!G35+[1]Juin!G35+[1]Juillet!G35+[1]Août!G35+[1]Septembre!G35+[1]Octobre!G35+[1]Novembre!G35+[1]Décembre!G35</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="9">
+        <f>F35+G35</f>
         <v>0</v>
       </c>
       <c r="I35" s="11"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
-      <c r="V35" s="9"/>
-      <c r="W35" s="9"/>
-      <c r="X35" s="9"/>
-      <c r="Y35" s="9"/>
-    </row>
-    <row r="36" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10">
-        <f t="shared" si="2"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="7"/>
+    </row>
+    <row r="36" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="12">
+        <f>[1]Janvier!B36+[1]Février!B36+[1]Mars!B36+[1]Avril!B36+[1]Mai!B36+[1]Juin!B36+[1]Juillet!B36+[1]Août!B36+[1]Septembre!B36+[1]Octobre!B36+[1]Novembre!B36+[1]Décembre!B36</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="12">
+        <f>[1]Janvier!C36+[1]Février!C36+[1]Mars!C36+[1]Avril!C36+[1]Mai!C36+[1]Juin!C36+[1]Juillet!C36+[1]Août!C36+[1]Septembre!C36+[1]Octobre!C36+[1]Novembre!C36+[1]Décembre!C36</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="12">
+        <f>[1]Janvier!D36+[1]Février!D36+[1]Mars!D36+[1]Avril!D36+[1]Mai!D36+[1]Juin!D36+[1]Juillet!D36+[1]Août!D36+[1]Septembre!D36+[1]Octobre!D36+[1]Novembre!D36+[1]Décembre!D36</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="12">
+        <f>[1]Janvier!E36+[1]Février!E36+[1]Mars!E36+[1]Avril!E36+[1]Mai!E36+[1]Juin!E36+[1]Juillet!E36+[1]Août!E36+[1]Septembre!E36+[1]Octobre!E36+[1]Novembre!E36+[1]Décembre!E36</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="9">
+        <f>[1]Janvier!F36+[1]Février!F36+[1]Mars!F36+[1]Avril!F36+[1]Mai!F36+[1]Juin!F36+[1]Juillet!F36+[1]Août!F36+[1]Septembre!F36+[1]Octobre!F36+[1]Novembre!F36+[1]Décembre!F36</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="9">
+        <f>[1]Janvier!G36+[1]Février!G36+[1]Mars!G36+[1]Avril!G36+[1]Mai!G36+[1]Juin!G36+[1]Juillet!G36+[1]Août!G36+[1]Septembre!G36+[1]Octobre!G36+[1]Novembre!G36+[1]Décembre!G36</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="9">
+        <f t="shared" ref="H36:H39" si="3">F36+G36</f>
         <v>0</v>
       </c>
       <c r="I36" s="11"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
-      <c r="V36" s="9"/>
-      <c r="W36" s="9"/>
-      <c r="X36" s="9"/>
-      <c r="Y36" s="9"/>
-    </row>
-    <row r="37" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10">
-        <f t="shared" si="2"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
+      <c r="X36" s="7"/>
+    </row>
+    <row r="37" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="12">
+        <f>[1]Janvier!B37+[1]Février!B37+[1]Mars!B37+[1]Avril!B37+[1]Mai!B37+[1]Juin!B37+[1]Juillet!B37+[1]Août!B37+[1]Septembre!B37+[1]Octobre!B37+[1]Novembre!B37+[1]Décembre!B37</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="12">
+        <f>[1]Janvier!C37+[1]Février!C37+[1]Mars!C37+[1]Avril!C37+[1]Mai!C37+[1]Juin!C37+[1]Juillet!C37+[1]Août!C37+[1]Septembre!C37+[1]Octobre!C37+[1]Novembre!C37+[1]Décembre!C37</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="12">
+        <f>[1]Janvier!D37+[1]Février!D37+[1]Mars!D37+[1]Avril!D37+[1]Mai!D37+[1]Juin!D37+[1]Juillet!D37+[1]Août!D37+[1]Septembre!D37+[1]Octobre!D37+[1]Novembre!D37+[1]Décembre!D37</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="12">
+        <f>[1]Janvier!E37+[1]Février!E37+[1]Mars!E37+[1]Avril!E37+[1]Mai!E37+[1]Juin!E37+[1]Juillet!E37+[1]Août!E37+[1]Septembre!E37+[1]Octobre!E37+[1]Novembre!E37+[1]Décembre!E37</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="9">
+        <f>[1]Janvier!F37+[1]Février!F37+[1]Mars!F37+[1]Avril!F37+[1]Mai!F37+[1]Juin!F37+[1]Juillet!F37+[1]Août!F37+[1]Septembre!F37+[1]Octobre!F37+[1]Novembre!F37+[1]Décembre!F37</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="9">
+        <f>[1]Janvier!G37+[1]Février!G37+[1]Mars!G37+[1]Avril!G37+[1]Mai!G37+[1]Juin!G37+[1]Juillet!G37+[1]Août!G37+[1]Septembre!G37+[1]Octobre!G37+[1]Novembre!G37+[1]Décembre!G37</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="9">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I37" s="11"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="9"/>
-      <c r="V37" s="9"/>
-      <c r="W37" s="9"/>
-      <c r="X37" s="9"/>
-      <c r="Y37" s="9"/>
-    </row>
-    <row r="38" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10">
-        <f t="shared" si="2"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="7"/>
+    </row>
+    <row r="38" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="9">
+        <f>[1]Janvier!F38+[1]Février!F38+[1]Mars!F38+[1]Avril!F38+[1]Mai!F38+[1]Juin!F38+[1]Juillet!F38+[1]Août!F38+[1]Septembre!F38+[1]Octobre!F38+[1]Novembre!F38+[1]Décembre!F38</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="9">
+        <f>[1]Janvier!G38+[1]Février!G38+[1]Mars!G38+[1]Avril!G38+[1]Mai!G38+[1]Juin!G38+[1]Juillet!G38+[1]Août!G38+[1]Septembre!G38+[1]Octobre!G38+[1]Novembre!G38+[1]Décembre!G38</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="9">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I38" s="11"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
-      <c r="X38" s="9"/>
-      <c r="Y38" s="9"/>
-    </row>
-    <row r="39" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10">
-        <f t="shared" si="2"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+    </row>
+    <row r="39" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="9">
+        <f>[1]Janvier!F39+[1]Février!F39+[1]Mars!F39+[1]Avril!F39+[1]Mai!F39+[1]Juin!F39+[1]Juillet!F39+[1]Août!F39+[1]Septembre!F39+[1]Octobre!F39+[1]Novembre!F39+[1]Décembre!F39</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="9">
+        <f>[1]Janvier!G39+[1]Février!G39+[1]Mars!G39+[1]Avril!G39+[1]Mai!G39+[1]Juin!G39+[1]Juillet!G39+[1]Août!G39+[1]Septembre!G39+[1]Octobre!G39+[1]Novembre!G39+[1]Décembre!G39</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="9">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I39" s="11"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="9"/>
-      <c r="S39" s="9"/>
-      <c r="T39" s="9"/>
-      <c r="U39" s="9"/>
-      <c r="V39" s="9"/>
-      <c r="W39" s="9"/>
-      <c r="X39" s="9"/>
-      <c r="Y39" s="9"/>
-    </row>
-    <row r="40" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="9"/>
-      <c r="S40" s="9"/>
-      <c r="T40" s="9"/>
-      <c r="U40" s="9"/>
-      <c r="V40" s="9"/>
-      <c r="W40" s="9"/>
-      <c r="X40" s="9"/>
-      <c r="Y40" s="9"/>
-    </row>
-    <row r="41" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10">
-        <f t="shared" si="2"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+    </row>
+    <row r="40" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7"/>
+    </row>
+    <row r="41" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="9">
+        <f>[1]Janvier!F41+[1]Février!F41+[1]Mars!F41+[1]Avril!F41+[1]Mai!F41+[1]Juin!F41+[1]Juillet!F41+[1]Août!F41+[1]Septembre!F41+[1]Octobre!F41+[1]Novembre!F41+[1]Décembre!F41</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="9">
+        <f>[1]Janvier!G41+[1]Février!G41+[1]Mars!G41+[1]Avril!G41+[1]Mai!G41+[1]Juin!G41+[1]Juillet!G41+[1]Août!G41+[1]Septembre!G41+[1]Octobre!G41+[1]Novembre!G41+[1]Décembre!G41</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="9">
+        <f>F41+G41</f>
         <v>0</v>
       </c>
       <c r="I41" s="11"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="9"/>
-      <c r="R41" s="9"/>
-      <c r="S41" s="9"/>
-      <c r="T41" s="9"/>
-      <c r="U41" s="9"/>
-      <c r="V41" s="9"/>
-      <c r="W41" s="9"/>
-      <c r="X41" s="9"/>
-      <c r="Y41" s="9"/>
-    </row>
-    <row r="42" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10">
-        <f t="shared" si="2"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+    </row>
+    <row r="42" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="9">
+        <f>[1]Janvier!F42+[1]Février!F42+[1]Mars!F42+[1]Avril!F42+[1]Mai!F42+[1]Juin!F42+[1]Juillet!F42+[1]Août!F42+[1]Septembre!F42+[1]Octobre!F42+[1]Novembre!F42+[1]Décembre!F42</f>
+        <v>0</v>
+      </c>
+      <c r="G42" s="9">
+        <f>[1]Janvier!G42+[1]Février!G42+[1]Mars!G42+[1]Avril!G42+[1]Mai!G42+[1]Juin!G42+[1]Juillet!G42+[1]Août!G42+[1]Septembre!G42+[1]Octobre!G42+[1]Novembre!G42+[1]Décembre!G42</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="9">
+        <f t="shared" ref="H42:H46" si="4">F42+G42</f>
         <v>0</v>
       </c>
       <c r="I42" s="11"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="9"/>
-      <c r="P42" s="9"/>
-      <c r="Q42" s="9"/>
-      <c r="R42" s="9"/>
-      <c r="S42" s="9"/>
-      <c r="T42" s="9"/>
-      <c r="U42" s="9"/>
-      <c r="V42" s="9"/>
-      <c r="W42" s="9"/>
-      <c r="X42" s="9"/>
-      <c r="Y42" s="9"/>
-    </row>
-    <row r="43" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10">
-        <f t="shared" si="2"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+    </row>
+    <row r="43" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="9">
+        <f>[1]Janvier!F43+[1]Février!F43+[1]Mars!F43+[1]Avril!F43+[1]Mai!F43+[1]Juin!F43+[1]Juillet!F43+[1]Août!F43+[1]Septembre!F43+[1]Octobre!F43+[1]Novembre!F43+[1]Décembre!F43</f>
+        <v>0</v>
+      </c>
+      <c r="G43" s="9">
+        <f>[1]Janvier!G43+[1]Février!G43+[1]Mars!G43+[1]Avril!G43+[1]Mai!G43+[1]Juin!G43+[1]Juillet!G43+[1]Août!G43+[1]Septembre!G43+[1]Octobre!G43+[1]Novembre!G43+[1]Décembre!G43</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="9">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I43" s="11"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="9"/>
-      <c r="R43" s="9"/>
-      <c r="S43" s="9"/>
-      <c r="T43" s="9"/>
-      <c r="U43" s="9"/>
-      <c r="V43" s="9"/>
-      <c r="W43" s="9"/>
-      <c r="X43" s="9"/>
-      <c r="Y43" s="9"/>
-    </row>
-    <row r="44" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+    </row>
+    <row r="44" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
-      <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="9"/>
-      <c r="R44" s="9"/>
-      <c r="S44" s="9"/>
-      <c r="T44" s="9"/>
-      <c r="U44" s="9"/>
-      <c r="V44" s="9"/>
-      <c r="W44" s="9"/>
-      <c r="X44" s="9"/>
-      <c r="Y44" s="9"/>
-    </row>
-    <row r="45" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10">
-        <f t="shared" si="2"/>
+      <c r="F44" s="9">
+        <f>[1]Janvier!F44+[1]Février!F44+[1]Mars!F44+[1]Avril!F44+[1]Mai!F44+[1]Juin!F44+[1]Juillet!F44+[1]Août!F44+[1]Septembre!F44+[1]Octobre!F44+[1]Novembre!F44+[1]Décembre!F44</f>
+        <v>0</v>
+      </c>
+      <c r="G44" s="9">
+        <f>[1]Janvier!G44+[1]Février!G44+[1]Mars!G44+[1]Avril!G44+[1]Mai!G44+[1]Juin!G44+[1]Juillet!G44+[1]Août!G44+[1]Septembre!G44+[1]Octobre!G44+[1]Novembre!G44+[1]Décembre!G44</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="11"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7"/>
+      <c r="V44" s="7"/>
+      <c r="W44" s="7"/>
+      <c r="X44" s="7"/>
+    </row>
+    <row r="45" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="9">
+        <f>[1]Janvier!F45+[1]Février!F45+[1]Mars!F45+[1]Avril!F45+[1]Mai!F45+[1]Juin!F45+[1]Juillet!F45+[1]Août!F45+[1]Septembre!F45+[1]Octobre!F45+[1]Novembre!F45+[1]Décembre!F45</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="9">
+        <f>[1]Janvier!G45+[1]Février!G45+[1]Mars!G45+[1]Avril!G45+[1]Mai!G45+[1]Juin!G45+[1]Juillet!G45+[1]Août!G45+[1]Septembre!G45+[1]Octobre!G45+[1]Novembre!G45+[1]Décembre!G45</f>
+        <v>0</v>
+      </c>
+      <c r="H45" s="9">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I45" s="11"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="9"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="9"/>
-      <c r="R45" s="9"/>
-      <c r="S45" s="9"/>
-      <c r="T45" s="9"/>
-      <c r="U45" s="9"/>
-      <c r="V45" s="9"/>
-      <c r="W45" s="9"/>
-      <c r="X45" s="9"/>
-      <c r="Y45" s="9"/>
-    </row>
-    <row r="46" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10">
-        <f t="shared" si="2"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="7"/>
+    </row>
+    <row r="46" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="9">
+        <f>[1]Janvier!F46+[1]Février!F46+[1]Mars!F46+[1]Avril!F46+[1]Mai!F46+[1]Juin!F46+[1]Juillet!F46+[1]Août!F46+[1]Septembre!F46+[1]Octobre!F46+[1]Novembre!F46+[1]Décembre!F46</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="9">
+        <f>[1]Janvier!G46+[1]Février!G46+[1]Mars!G46+[1]Avril!G46+[1]Mai!G46+[1]Juin!G46+[1]Juillet!G46+[1]Août!G46+[1]Septembre!G46+[1]Octobre!G46+[1]Novembre!G46+[1]Décembre!G46</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="9">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I46" s="11"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="9"/>
-      <c r="R46" s="9"/>
-      <c r="S46" s="9"/>
-      <c r="T46" s="9"/>
-      <c r="U46" s="9"/>
-      <c r="V46" s="9"/>
-      <c r="W46" s="9"/>
-      <c r="X46" s="9"/>
-      <c r="Y46" s="9"/>
-    </row>
-    <row r="47" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="7"/>
+    </row>
+    <row r="47" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="11"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="9"/>
-      <c r="P47" s="9"/>
-      <c r="Q47" s="9"/>
-      <c r="R47" s="9"/>
-      <c r="S47" s="9"/>
-      <c r="T47" s="9"/>
-      <c r="U47" s="9"/>
-      <c r="V47" s="9"/>
-      <c r="W47" s="9"/>
-      <c r="X47" s="9"/>
-      <c r="Y47" s="9"/>
-    </row>
-    <row r="48" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+    </row>
+    <row r="48" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
-      <c r="P48" s="9"/>
-      <c r="Q48" s="9"/>
-      <c r="R48" s="9"/>
-      <c r="S48" s="9"/>
-      <c r="T48" s="9"/>
-      <c r="U48" s="9"/>
-      <c r="V48" s="9"/>
-      <c r="W48" s="9"/>
-      <c r="X48" s="9"/>
-      <c r="Y48" s="9"/>
-    </row>
-    <row r="49" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10">
-        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="B48" s="12" t="e">
+        <f>[1]Janvier!B48+[1]Février!B48+[1]Mars!B48+[1]Avril!B48+[1]Mai!B48+[1]Juin!B48+[1]Juillet!B48+[1]Août!B48+[1]Septembre!B48+[1]Octobre!B48+[1]Novembre!B48+[1]Décembre!B48</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C48" s="12" t="e">
+        <f>[1]Janvier!C48+[1]Février!C48+[1]Mars!C48+[1]Avril!C48+[1]Mai!C48+[1]Juin!C48+[1]Juillet!C48+[1]Août!C48+[1]Septembre!C48+[1]Octobre!C48+[1]Novembre!C48+[1]Décembre!C48</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D48" s="12" t="e">
+        <f>[1]Janvier!D48+[1]Février!D48+[1]Mars!D48+[1]Avril!D48+[1]Mai!D48+[1]Juin!D48+[1]Juillet!D48+[1]Août!D48+[1]Septembre!D48+[1]Octobre!D48+[1]Novembre!D48+[1]Décembre!D48</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E48" s="12" t="e">
+        <f>[1]Janvier!E48+[1]Février!E48+[1]Mars!E48+[1]Avril!E48+[1]Mai!E48+[1]Juin!E48+[1]Juillet!E48+[1]Août!E48+[1]Septembre!E48+[1]Octobre!E48+[1]Novembre!E48+[1]Décembre!E48</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F48" s="9">
+        <f>[1]Janvier!F48+[1]Février!F48+[1]Mars!F48+[1]Avril!F48+[1]Mai!F48+[1]Juin!F48+[1]Juillet!F48+[1]Août!F48+[1]Septembre!F48+[1]Octobre!F48+[1]Novembre!F48+[1]Décembre!F48</f>
+        <v>0</v>
+      </c>
+      <c r="G48" s="9">
+        <f>[1]Janvier!G48+[1]Février!G48+[1]Mars!G48+[1]Avril!G48+[1]Mai!G48+[1]Juin!G48+[1]Juillet!G48+[1]Août!G48+[1]Septembre!G48+[1]Octobre!G48+[1]Novembre!G48+[1]Décembre!G48</f>
+        <v>0</v>
+      </c>
+      <c r="H48" s="9">
+        <f>F48+G48</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="11"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+      <c r="V48" s="7"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="7"/>
+    </row>
+    <row r="49" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="9">
+        <f>[1]Janvier!F49+[1]Février!F49+[1]Mars!F49+[1]Avril!F49+[1]Mai!F49+[1]Juin!F49+[1]Juillet!F49+[1]Août!F49+[1]Septembre!F49+[1]Octobre!F49+[1]Novembre!F49+[1]Décembre!F49</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="9">
+        <f>[1]Janvier!G49+[1]Février!G49+[1]Mars!G49+[1]Avril!G49+[1]Mai!G49+[1]Juin!G49+[1]Juillet!G49+[1]Août!G49+[1]Septembre!G49+[1]Octobre!G49+[1]Novembre!G49+[1]Décembre!G49</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="9">
+        <f t="shared" ref="H49:H50" si="5">F49+G49</f>
         <v>0</v>
       </c>
       <c r="I49" s="11"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="9"/>
-      <c r="O49" s="9"/>
-      <c r="P49" s="9"/>
-      <c r="Q49" s="9"/>
-      <c r="R49" s="9"/>
-      <c r="S49" s="9"/>
-      <c r="T49" s="9"/>
-      <c r="U49" s="9"/>
-      <c r="V49" s="9"/>
-      <c r="W49" s="9"/>
-      <c r="X49" s="9"/>
-      <c r="Y49" s="9"/>
-    </row>
-    <row r="50" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10">
-        <f t="shared" si="2"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+      <c r="V49" s="7"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="7"/>
+    </row>
+    <row r="50" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="9">
+        <f>[1]Janvier!F50+[1]Février!F50+[1]Mars!F50+[1]Avril!F50+[1]Mai!F50+[1]Juin!F50+[1]Juillet!F50+[1]Août!F50+[1]Septembre!F50+[1]Octobre!F50+[1]Novembre!F50+[1]Décembre!F50</f>
+        <v>0</v>
+      </c>
+      <c r="G50" s="9">
+        <f>[1]Janvier!G50+[1]Février!G50+[1]Mars!G50+[1]Avril!G50+[1]Mai!G50+[1]Juin!G50+[1]Juillet!G50+[1]Août!G50+[1]Septembre!G50+[1]Octobre!G50+[1]Novembre!G50+[1]Décembre!G50</f>
+        <v>0</v>
+      </c>
+      <c r="H50" s="9">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I50" s="11"/>
@@ -2283,21 +3122,28 @@
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
-      <c r="Y50" s="1"/>
-    </row>
-    <row r="51" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I51" s="11"/>
+    </row>
+    <row r="51" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14">
+        <f>[1]Janvier!F51+[1]Février!F51+[1]Mars!F51+[1]Avril!F51+[1]Mai!F51+[1]Juin!F51+[1]Juillet!F51+[1]Août!F51+[1]Septembre!F51+[1]Octobre!F51+[1]Novembre!F51+[1]Décembre!F51</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="14">
+        <f>[1]Janvier!G51+[1]Février!G51+[1]Mars!G51+[1]Avril!G51+[1]Mai!G51+[1]Juin!G51+[1]Juillet!G51+[1]Août!G51+[1]Septembre!G51+[1]Octobre!G51+[1]Novembre!G51+[1]Décembre!G51</f>
+        <v>0</v>
+      </c>
+      <c r="H51" s="14">
+        <f>[1]Décembre!I51</f>
+        <v>0</v>
+      </c>
+      <c r="I51" s="14"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -2313,21 +3159,167 @@
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
       <c r="X51" s="1"/>
-      <c r="Y51" s="1"/>
-    </row>
-    <row r="52" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="52" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="9">
+        <f>[1]Janvier!F52+[1]Février!F52+[1]Mars!F52+[1]Avril!F52+[1]Mai!F52+[1]Juin!F52+[1]Juillet!F52+[1]Août!F52+[1]Septembre!F52+[1]Octobre!F52+[1]Novembre!F52+[1]Décembre!F52</f>
+        <v>0</v>
+      </c>
+      <c r="G52" s="9">
+        <f>[1]Janvier!G52+[1]Février!G52+[1]Mars!G52+[1]Avril!G52+[1]Mai!G52+[1]Juin!G52+[1]Juillet!G52+[1]Août!G52+[1]Septembre!G52+[1]Octobre!G52+[1]Novembre!G52+[1]Décembre!G52</f>
+        <v>0</v>
+      </c>
+      <c r="H52" s="9">
+        <f>F52+G52</f>
+        <v>0</v>
+      </c>
+      <c r="I52" s="11"/>
+    </row>
+    <row r="53" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="9">
+        <f>[1]Janvier!F53+[1]Février!F53+[1]Mars!F53+[1]Avril!F53+[1]Mai!F53+[1]Juin!F53+[1]Juillet!F53+[1]Août!F53+[1]Septembre!F53+[1]Octobre!F53+[1]Novembre!F53+[1]Décembre!F53</f>
+        <v>0</v>
+      </c>
+      <c r="G53" s="9">
+        <f>[1]Janvier!G53+[1]Février!G53+[1]Mars!G53+[1]Avril!G53+[1]Mai!G53+[1]Juin!G53+[1]Juillet!G53+[1]Août!G53+[1]Septembre!G53+[1]Octobre!G53+[1]Novembre!G53+[1]Décembre!G53</f>
+        <v>0</v>
+      </c>
+      <c r="H53" s="9">
+        <f t="shared" ref="H53:H54" si="6">F53+G53</f>
+        <v>0</v>
+      </c>
+      <c r="I53" s="11"/>
+    </row>
+    <row r="54" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="9">
+        <f>[1]Janvier!F54+[1]Février!F54+[1]Mars!F54+[1]Avril!F54+[1]Mai!F54+[1]Juin!F54+[1]Juillet!F54+[1]Août!F54+[1]Septembre!F54+[1]Octobre!F54+[1]Novembre!F54+[1]Décembre!F54</f>
+        <v>0</v>
+      </c>
+      <c r="G54" s="9">
+        <f>[1]Janvier!G54+[1]Février!G54+[1]Mars!G54+[1]Avril!G54+[1]Mai!G54+[1]Juin!G54+[1]Juillet!G54+[1]Août!G54+[1]Septembre!G54+[1]Octobre!G54+[1]Novembre!G54+[1]Décembre!G54</f>
+        <v>0</v>
+      </c>
+      <c r="H54" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="11"/>
+    </row>
+    <row r="55" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14">
+        <f>[1]Janvier!F55+[1]Février!F55+[1]Mars!F55+[1]Avril!F55+[1]Mai!F55+[1]Juin!F55+[1]Juillet!F55+[1]Août!F55+[1]Septembre!F55+[1]Octobre!F55+[1]Novembre!F55+[1]Décembre!F55</f>
+        <v>0</v>
+      </c>
+      <c r="G55" s="14">
+        <f>[1]Janvier!G55+[1]Février!G55+[1]Mars!G55+[1]Avril!G55+[1]Mai!G55+[1]Juin!G55+[1]Juillet!G55+[1]Août!G55+[1]Septembre!G55+[1]Octobre!G55+[1]Novembre!G55+[1]Décembre!G55</f>
+        <v>0</v>
+      </c>
+      <c r="H55" s="14">
+        <f>[1]Décembre!I55</f>
+        <v>0</v>
+      </c>
+      <c r="I55" s="14"/>
+    </row>
+    <row r="56" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="9">
+        <f>[1]Janvier!F56+[1]Février!F56+[1]Mars!F56+[1]Avril!F56+[1]Mai!F56+[1]Juin!F56+[1]Juillet!F56+[1]Août!F56+[1]Septembre!F56+[1]Octobre!F56+[1]Novembre!F56+[1]Décembre!F56</f>
+        <v>0</v>
+      </c>
+      <c r="G56" s="9">
+        <f>[1]Janvier!G56+[1]Février!G56+[1]Mars!G56+[1]Avril!G56+[1]Mai!G56+[1]Juin!G56+[1]Juillet!G56+[1]Août!G56+[1]Septembre!G56+[1]Octobre!G56+[1]Novembre!G56+[1]Décembre!G56</f>
+        <v>0</v>
+      </c>
+      <c r="H56" s="9">
+        <f>F56+G56</f>
+        <v>0</v>
+      </c>
+      <c r="I56" s="11"/>
+    </row>
+    <row r="57" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="9">
+        <f>[1]Janvier!F57+[1]Février!F57+[1]Mars!F57+[1]Avril!F57+[1]Mai!F57+[1]Juin!F57+[1]Juillet!F57+[1]Août!F57+[1]Septembre!F57+[1]Octobre!F57+[1]Novembre!F57+[1]Décembre!F57</f>
+        <v>0</v>
+      </c>
+      <c r="G57" s="9">
+        <f>[1]Janvier!G57+[1]Février!G57+[1]Mars!G57+[1]Avril!G57+[1]Mai!G57+[1]Juin!G57+[1]Juillet!G57+[1]Août!G57+[1]Septembre!G57+[1]Octobre!G57+[1]Novembre!G57+[1]Décembre!G57</f>
+        <v>0</v>
+      </c>
+      <c r="H57" s="9">
+        <f t="shared" ref="H57:H58" si="7">F57+G57</f>
+        <v>0</v>
+      </c>
+      <c r="I57" s="11"/>
+    </row>
+    <row r="58" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="9">
+        <f>[1]Janvier!F58+[1]Février!F58+[1]Mars!F58+[1]Avril!F58+[1]Mai!F58+[1]Juin!F58+[1]Juillet!F58+[1]Août!F58+[1]Septembre!F58+[1]Octobre!F58+[1]Novembre!F58+[1]Décembre!F58</f>
+        <v>0</v>
+      </c>
+      <c r="G58" s="9">
+        <f>[1]Janvier!G58+[1]Février!G58+[1]Mars!G58+[1]Avril!G58+[1]Mai!G58+[1]Juin!G58+[1]Juillet!G58+[1]Août!G58+[1]Septembre!G58+[1]Octobre!G58+[1]Novembre!G58+[1]Décembre!G58</f>
+        <v>0</v>
+      </c>
+      <c r="H58" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="11"/>
+    </row>
+    <row r="59" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3264,47 +4256,57 @@
     <row r="998" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="999" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="50">
     <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:C4"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="H14:H15"/>
     <mergeCell ref="A29:E29"/>
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A22:E22"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A26:E26"/>
     <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A44:E44"/>
     <mergeCell ref="A41:E41"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="A31:E31"/>
     <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="A34:E34"/>
     <mergeCell ref="A35:E35"/>
     <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="A40:I40"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A51:I51"/>
     <mergeCell ref="A37:E37"/>
     <mergeCell ref="A38:E38"/>
     <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A40:I40"/>
-    <mergeCell ref="A48:I48"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A44:I44"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="A55:I55"/>
+    <mergeCell ref="A56:E56"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" display="mailto:Am3.Am.Dam.Dgitm@developpement-durable.gouv.fr" xr:uid="{9703807A-0C3C-47D7-ACAD-5B1D20137350}"/>
